--- a/CDS_submission_metadata_template-v1.3.1.xlsx
+++ b/CDS_submission_metadata_template-v1.3.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CCDI/CancerDataServices-SubmissionValidation-R_WORKING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A98F9D-9DF8-A146-8DF3-6C0527FC6C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED65597-8427-C948-9D03-80CE9826808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
@@ -30858,7 +30858,7 @@
   <dimension ref="A1:CQ1"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31256,10 +31256,10 @@
   <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33527,8 +33527,8 @@
   <dimension ref="A1:D9709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82173,12 +82173,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82373,15 +82370,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -82406,18 +82415,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CDS_submission_metadata_template-v1.3.1.xlsx
+++ b/CDS_submission_metadata_template-v1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CCDI/CancerDataServices-SubmissionValidation-R_WORKING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED65597-8427-C948-9D03-80CE9826808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918CC6D6-5AE9-5242-B03C-5A639AB1FFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
+    <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
   <sheets>
     <sheet name="README and INSTRUCTIONS" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10457" uniqueCount="9951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10461" uniqueCount="9953">
   <si>
     <t>CDS SUBMISSION METADATA TEMPLATE</t>
   </si>
@@ -29891,6 +29891,12 @@
   </si>
   <si>
     <t>['phs001234']; ['open','phs654321']</t>
+  </si>
+  <si>
+    <t>study_short_title</t>
+  </si>
+  <si>
+    <t>The short title for the study.</t>
   </si>
 </sst>
 </file>
@@ -30520,7 +30526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD12F604-CF78-5542-9070-C93B4F6D3A82}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -30855,10 +30861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
-  <dimension ref="A1:CQ1"/>
+  <dimension ref="A1:CR1"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30866,99 +30872,100 @@
     <col min="1" max="1" width="11" style="21"/>
     <col min="2" max="2" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="36" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="20.6640625" style="21" customWidth="1"/>
-    <col min="35" max="35" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="30.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="32.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="34.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="49.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="35.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="27.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="25.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="30.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="27.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="31.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="40.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="30.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="29.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="22.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="11" style="21"/>
+    <col min="4" max="4" width="15.1640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="36" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" style="21" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="20.6640625" style="21" customWidth="1"/>
+    <col min="36" max="36" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25" style="21" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26" style="21" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="34.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="49.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="35.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="32.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="27.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28" style="21" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="40.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="30.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="29.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="22.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
@@ -30968,280 +30975,283 @@
       <c r="C1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
+        <v>9951</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>9786</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>9923</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="W1" s="37" t="s">
         <v>9924</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>9795</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AD1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>9919</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AI1" s="36" t="s">
         <v>9911</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>9794</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" s="37" t="s">
+      <c r="AO1" s="37" t="s">
         <v>9925</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AR1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AS1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AT1" s="38" t="s">
         <v>9793</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="AW1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="33" t="s">
+      <c r="AX1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AY1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="41" t="s">
+      <c r="AZ1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="34" t="s">
+      <c r="BA1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BB1" s="34" t="s">
         <v>9783</v>
       </c>
-      <c r="BB1" s="38" t="s">
+      <c r="BC1" s="38" t="s">
         <v>9796</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BE1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BG1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BH1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BI1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BJ1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="34" t="s">
+      <c r="BK1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BL1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BM1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BN1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BO1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="34" t="s">
+      <c r="BP1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="34" t="s">
+      <c r="BQ1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="34" t="s">
+      <c r="BR1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="38" t="s">
+      <c r="BS1" s="38" t="s">
         <v>9921</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="BT1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="BU1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="BU1" s="34" t="s">
+      <c r="BV1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="BV1" s="34" t="s">
+      <c r="BW1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="BW1" s="38" t="s">
+      <c r="BX1" s="38" t="s">
         <v>9926</v>
       </c>
-      <c r="BX1" s="34" t="s">
+      <c r="BY1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BY1" s="34" t="s">
+      <c r="BZ1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="BZ1" s="34" t="s">
+      <c r="CA1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="CA1" s="34" t="s">
+      <c r="CB1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="CB1" s="34" t="s">
+      <c r="CC1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="CC1" s="34" t="s">
+      <c r="CD1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="CD1" s="34" t="s">
+      <c r="CE1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="CE1" s="34" t="s">
+      <c r="CF1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="CF1" s="34" t="s">
+      <c r="CG1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="CG1" s="34" t="s">
+      <c r="CH1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="CH1" s="34" t="s">
+      <c r="CI1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="CI1" s="34" t="s">
+      <c r="CJ1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="CJ1" s="34" t="s">
+      <c r="CK1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="CK1" s="34" t="s">
+      <c r="CL1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="CL1" s="39" t="s">
+      <c r="CM1" s="39" t="s">
         <v>9922</v>
       </c>
-      <c r="CM1" s="34" t="s">
+      <c r="CN1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="34" t="s">
+      <c r="CO1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="CO1" s="34" t="s">
+      <c r="CP1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="CP1" s="34" t="s">
+      <c r="CQ1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="CQ1" s="34" t="s">
+      <c r="CR1" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -31253,13 +31263,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4450A4D-5A2E-7741-AAC5-3F3FBD0A3F37}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31391,61 +31401,47 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
-        <v>9786</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9803</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9809</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9804</v>
+      <c r="B5" s="33" t="s">
+        <v>9951</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9952</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>9946</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
-        <v>166</v>
+      <c r="B6" s="40" t="s">
+        <v>9786</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>9803</v>
       </c>
       <c r="D6" t="s">
-        <v>9792</v>
+        <v>9809</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>9946</v>
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9804</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="N6" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>9810</v>
+        <v>9792</v>
       </c>
       <c r="E7" t="s">
         <v>168</v>
@@ -31454,150 +31450,150 @@
         <v>169</v>
       </c>
       <c r="H7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>9946</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
-      <c r="N7" s="45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>9811</v>
+        <v>9810</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8">
+        <v>4000</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>9946</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="31">
-        <v>6944407</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="N8" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>9812</v>
+        <v>9811</v>
       </c>
       <c r="E9" t="s">
         <v>127</v>
       </c>
-      <c r="F9" t="s">
-        <v>177</v>
+      <c r="G9" t="s">
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>9946</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
-      <c r="N9" s="45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9" s="31">
+        <v>6944407</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>9813</v>
+        <v>9812</v>
       </c>
       <c r="E10" t="s">
         <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>9950</v>
+        <v>178</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>9946</v>
       </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
-      <c r="N10" s="44" t="s">
-        <v>183</v>
+      <c r="N10" s="45" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>9814</v>
+        <v>9813</v>
       </c>
       <c r="E11" t="s">
         <v>127</v>
       </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>9950</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>9946</v>
       </c>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="31">
-        <v>1848</v>
-      </c>
-      <c r="M11" s="31">
-        <v>6974944</v>
+      <c r="N11" s="44" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>9815</v>
+        <v>9814</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>9946</v>
@@ -31605,468 +31601,481 @@
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
       <c r="L12" s="31">
+        <v>1848</v>
+      </c>
+      <c r="M12" s="31">
+        <v>6974944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9815</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>9946</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="31">
         <v>2661018</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9816</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>9817</v>
+        <v>9816</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="31">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9817</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="31">
         <v>3717994</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+    <row r="16" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>9818</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>127</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>140</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N16" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>9819</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>144</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>9820</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9821</v>
       </c>
       <c r="E19" t="s">
         <v>127</v>
       </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
       <c r="H19" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>9822</v>
+        <v>9821</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="31">
-        <v>3434057</v>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>9823</v>
+        <v>9822</v>
       </c>
       <c r="E21" t="s">
         <v>127</v>
       </c>
-      <c r="H21" t="s">
-        <v>153</v>
+      <c r="L21" s="31">
+        <v>3434057</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>9824</v>
+        <v>9823</v>
       </c>
       <c r="E22" t="s">
         <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="31">
-        <v>2649415</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>9825</v>
+        <v>9824</v>
       </c>
       <c r="E23" t="s">
         <v>127</v>
       </c>
       <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="31">
+        <v>2649415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9825</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>9826</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="40" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>160</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>9827</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="31">
-        <v>6118266</v>
-      </c>
-      <c r="N26" s="45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9828</v>
       </c>
       <c r="E27" t="s">
         <v>127</v>
       </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="N27" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="L27" s="31">
+        <v>6118266</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>9829</v>
+        <v>9828</v>
       </c>
       <c r="E28" t="s">
         <v>127</v>
       </c>
-      <c r="F28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="N28" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="N28" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>9830</v>
+        <v>9829</v>
       </c>
       <c r="E29" t="s">
         <v>127</v>
       </c>
       <c r="F29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="N29" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9830</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
         <v>189</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="31">
-        <v>6115806</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
+      <c r="L30" s="31">
+        <v>6115806</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>9831</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9832</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>9947</v>
-      </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="31">
-        <v>6867052</v>
-      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="33" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>9833</v>
+        <v>9832</v>
       </c>
       <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="G33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" t="s">
-        <v>195</v>
-      </c>
       <c r="I33" s="33" t="s">
         <v>9947</v>
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="27">
-        <v>2200604</v>
+      <c r="L33" s="31">
+        <v>6867052</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
-        <v>59</v>
+      <c r="B34" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
-        <v>9834</v>
+        <v>9833</v>
       </c>
       <c r="E34" t="s">
         <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>9947</v>
+      </c>
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="27">
-        <v>2192199</v>
-      </c>
-      <c r="N34" s="44"/>
+        <v>2200604</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>9835</v>
+        <v>9834</v>
       </c>
       <c r="E35" t="s">
         <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="27">
-        <v>2192217</v>
+        <v>2192199</v>
       </c>
       <c r="N35" s="44"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>9791</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>9836</v>
+        <v>9835</v>
       </c>
       <c r="E36" t="s">
         <v>127</v>
       </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>199</v>
+      </c>
       <c r="I36" s="7"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="27">
+        <v>2192217</v>
+      </c>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
-        <v>9919</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>9918</v>
+        <v>9791</v>
       </c>
       <c r="D37" t="s">
-        <v>9837</v>
+        <v>9836</v>
       </c>
       <c r="E37" t="s">
         <v>127</v>
@@ -32075,13 +32084,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="40" t="s">
-        <v>9911</v>
+        <v>9919</v>
       </c>
       <c r="C38" t="s">
-        <v>9920</v>
+        <v>9918</v>
       </c>
       <c r="D38" t="s">
-        <v>9838</v>
+        <v>9837</v>
       </c>
       <c r="E38" t="s">
         <v>127</v>
@@ -32089,295 +32098,282 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="40" t="s">
+        <v>9911</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9920</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9838</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>9839</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>200</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>9840</v>
-      </c>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>9841</v>
       </c>
       <c r="E42" t="s">
         <v>127</v>
       </c>
-      <c r="L42" s="31">
-        <v>2003907</v>
-      </c>
-      <c r="M42" s="31">
-        <v>5432687</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9842</v>
+        <v>62</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9841</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
       </c>
-      <c r="F43" t="s">
-        <v>203</v>
-      </c>
-      <c r="H43" t="s">
-        <v>204</v>
-      </c>
-      <c r="I43" s="7"/>
       <c r="L43" s="31">
-        <v>2230047</v>
-      </c>
-      <c r="N43" s="44" t="s">
-        <v>205</v>
+        <v>2003907</v>
+      </c>
+      <c r="M43" s="31">
+        <v>5432687</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="s">
-        <v>64</v>
+      <c r="B44" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>9844</v>
+        <v>9842</v>
       </c>
       <c r="E44" t="s">
         <v>127</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="L44" s="31">
+        <v>2230047</v>
+      </c>
+      <c r="N44" s="44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H44" t="s">
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9844</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I45" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="27">
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="27">
         <v>3111302</v>
       </c>
-      <c r="N44" s="44"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="43"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="N45" s="44"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="43"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
         <v>9845</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9843</v>
-      </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="s">
-        <v>210</v>
-      </c>
-      <c r="L48" s="27">
-        <v>5432687</v>
-      </c>
-      <c r="N48" s="44"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>9846</v>
+        <v>9843</v>
       </c>
       <c r="E49" t="s">
         <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
-        <v>4566</v>
-      </c>
-      <c r="K49" s="5"/>
+        <v>210</v>
+      </c>
       <c r="L49" s="27">
-        <v>4742851</v>
+        <v>5432687</v>
       </c>
       <c r="N49" s="44"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>9847</v>
+        <v>9846</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>214</v>
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s">
+        <v>212</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>4566</v>
+      </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="28">
-        <v>3008340</v>
-      </c>
+      <c r="L50" s="27">
+        <v>4742851</v>
+      </c>
+      <c r="N50" s="44"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B51" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9847</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="28">
+        <v>3008340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>215</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>9848</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>127</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L52" s="31">
         <v>5581201</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M52" s="31">
         <v>5220155</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
         <v>9849</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9850</v>
-      </c>
-      <c r="E54" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="31">
-        <v>6115804</v>
-      </c>
-      <c r="M54" s="31">
-        <v>7787681</v>
-      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" t="s">
-        <v>9851</v>
+        <v>9850</v>
       </c>
       <c r="E55" t="s">
         <v>127</v>
-      </c>
-      <c r="H55" t="s">
-        <v>9917</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>12</v>
@@ -32385,30 +32381,27 @@
       <c r="J55" s="43"/>
       <c r="K55" s="43"/>
       <c r="L55" s="31">
-        <v>6983162</v>
+        <v>6115804</v>
       </c>
       <c r="M55" s="31">
-        <v>7797710</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>7787681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>9853</v>
+        <v>9851</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>9917</v>
       </c>
       <c r="I56" s="33" t="s">
         <v>12</v>
@@ -32416,890 +32409,900 @@
       <c r="J56" s="43"/>
       <c r="K56" s="43"/>
       <c r="L56" s="31">
-        <v>6115806</v>
-      </c>
-      <c r="N56" s="45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6983162</v>
+      </c>
+      <c r="M56" s="31">
+        <v>7797710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>9858</v>
+        <v>9853</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>168</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
       </c>
       <c r="H57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I57" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="43"/>
+      <c r="L57" s="31">
+        <v>6115806</v>
+      </c>
+      <c r="N57" s="45" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>9859</v>
+        <v>9858</v>
       </c>
       <c r="E58" t="s">
         <v>127</v>
       </c>
-      <c r="F58" t="s">
-        <v>229</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>230</v>
+      <c r="H58" t="s">
+        <v>223</v>
       </c>
       <c r="I58" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="43"/>
-      <c r="N58" s="46" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="47" t="s">
-        <v>73</v>
+      <c r="B59" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>9860</v>
+        <v>9859</v>
       </c>
       <c r="E59" t="s">
         <v>127</v>
       </c>
-      <c r="L59" s="31">
-        <v>6115805</v>
+      <c r="F59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="N59" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="40" t="s">
-        <v>74</v>
+      <c r="B60" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>9861</v>
+        <v>9860</v>
       </c>
       <c r="E60" t="s">
         <v>127</v>
       </c>
-      <c r="F60" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" t="s">
-        <v>227</v>
+      <c r="L60" s="31">
+        <v>6115805</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="40" t="s">
-        <v>9783</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>9852</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>9862</v>
+        <v>9861</v>
       </c>
       <c r="E61" t="s">
         <v>127</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="40" t="s">
         <v>9783</v>
       </c>
-      <c r="H61" t="s">
+      <c r="C62" t="s">
+        <v>9852</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9862</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9783</v>
+      </c>
+      <c r="H62" t="s">
         <v>9857</v>
       </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>9787</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
         <v>9863</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="33" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>232</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>9864</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>233</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>9948</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="N64" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9865</v>
       </c>
       <c r="E65" t="s">
         <v>127</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>9948</v>
+      </c>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="N65" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H65" t="s">
-        <v>236</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="L65" s="31">
-        <v>6273393</v>
-      </c>
-      <c r="N65" s="46"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="33" t="s">
-        <v>78</v>
-      </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>9866</v>
+        <v>9865</v>
       </c>
       <c r="E66" t="s">
         <v>127</v>
       </c>
       <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>236</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="L66" s="31">
+        <v>6273393</v>
+      </c>
+      <c r="N66" s="46"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>9948</v>
-      </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="31">
-        <v>6285979</v>
-      </c>
-      <c r="N66" s="46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>9867</v>
+        <v>9866</v>
       </c>
       <c r="E67" t="s">
         <v>127</v>
       </c>
       <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>9948</v>
+      </c>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="31">
+        <v>6285979</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H67" t="s">
-        <v>241</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="L67" s="31">
-        <v>6347743</v>
-      </c>
-      <c r="N67" s="46"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="33" t="s">
-        <v>80</v>
-      </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>9868</v>
+        <v>9867</v>
       </c>
       <c r="E68" t="s">
         <v>127</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>9948</v>
-      </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="N68" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="L68" s="31">
+        <v>6347743</v>
+      </c>
+      <c r="N68" s="46"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D69" t="s">
-        <v>9869</v>
+        <v>9868</v>
       </c>
       <c r="E69" t="s">
         <v>127</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I69" s="33" t="s">
         <v>9948</v>
       </c>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
-      <c r="L69" s="31">
-        <v>6347771</v>
-      </c>
-      <c r="N69" s="48" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="40" t="s">
-        <v>82</v>
+      <c r="N69" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>9870</v>
+        <v>9869</v>
       </c>
       <c r="E70" t="s">
         <v>127</v>
       </c>
-      <c r="F70" t="s">
-        <v>250</v>
-      </c>
       <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>247</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>9948</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="31">
+        <v>6347771</v>
+      </c>
+      <c r="N70" s="48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="H70" t="s">
-        <v>251</v>
-      </c>
-      <c r="I70" s="7"/>
-      <c r="L70" s="31">
-        <v>6352164</v>
-      </c>
-      <c r="N70" s="46"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="40" t="s">
-        <v>83</v>
-      </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>9871</v>
+        <v>9870</v>
       </c>
       <c r="E71" t="s">
         <v>127</v>
       </c>
+      <c r="F71" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>251</v>
+      </c>
       <c r="I71" s="7"/>
+      <c r="L71" s="31">
+        <v>6352164</v>
+      </c>
       <c r="N71" s="46"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
-        <v>84</v>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>9872</v>
+        <v>9871</v>
       </c>
       <c r="E72" t="s">
         <v>127</v>
       </c>
-      <c r="F72" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" t="s">
-        <v>255</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>9948</v>
-      </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="N72" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="40" t="s">
-        <v>85</v>
+      <c r="I72" s="7"/>
+      <c r="N72" s="46"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="E73" t="s">
         <v>127</v>
       </c>
+      <c r="F73" t="s">
+        <v>254</v>
+      </c>
       <c r="H73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>9948</v>
+      </c>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="N73" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9873</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" t="s">
         <v>258</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="N73" s="46"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9874</v>
-      </c>
-      <c r="E74" t="s">
-        <v>168</v>
       </c>
       <c r="I74" s="7"/>
       <c r="N74" s="46"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
-        <v>9875</v>
+        <v>9874</v>
       </c>
       <c r="E75" t="s">
         <v>168</v>
       </c>
       <c r="I75" s="7"/>
-      <c r="N75" s="46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="46"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
-        <v>9876</v>
+        <v>9875</v>
       </c>
       <c r="E76" t="s">
         <v>168</v>
       </c>
       <c r="I76" s="7"/>
-      <c r="N76" s="46"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>9877</v>
+        <v>9876</v>
       </c>
       <c r="E77" t="s">
         <v>168</v>
       </c>
       <c r="I77" s="7"/>
-      <c r="L77" s="31">
+      <c r="N77" s="46"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9877</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="L78" s="31">
         <v>6380354</v>
       </c>
-      <c r="N77" s="46"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="40" t="s">
+      <c r="N78" s="46"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B79" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>264</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>9878</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>127</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="N78" s="46" t="s">
+      <c r="I79" s="7"/>
+      <c r="N79" s="46" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>9916</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
         <v>9879</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>9880</v>
-      </c>
-      <c r="E81" t="s">
-        <v>127</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>9916</v>
-      </c>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9881</v>
       </c>
       <c r="E82" t="s">
         <v>127</v>
       </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" t="s">
-        <v>267</v>
-      </c>
       <c r="I82" s="33" t="s">
         <v>9916</v>
       </c>
-      <c r="L82" s="32">
-        <v>6161017</v>
-      </c>
-      <c r="N82" s="45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="40" t="s">
-        <v>93</v>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>9882</v>
+        <v>9881</v>
       </c>
       <c r="E83" t="s">
         <v>127</v>
       </c>
       <c r="G83" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="I83" s="33" t="s">
+        <v>9916</v>
       </c>
       <c r="L83" s="32">
-        <v>6161019</v>
-      </c>
-      <c r="N83" s="44" t="s">
-        <v>272</v>
+        <v>6161017</v>
+      </c>
+      <c r="N83" s="45" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B84" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>9883</v>
+        <v>9882</v>
       </c>
       <c r="E84" t="s">
         <v>127</v>
       </c>
       <c r="G84" t="s">
+        <v>270</v>
+      </c>
+      <c r="H84" t="s">
+        <v>271</v>
+      </c>
+      <c r="L84" s="32">
+        <v>6161019</v>
+      </c>
+      <c r="N84" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H84" t="s">
+      <c r="C85" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9883</v>
+      </c>
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" t="s">
+        <v>94</v>
+      </c>
+      <c r="H85" t="s">
         <v>274</v>
       </c>
-      <c r="L84" s="27">
+      <c r="L85" s="27">
         <v>5</v>
       </c>
-      <c r="M84" s="31">
+      <c r="M85" s="31">
         <v>2847330</v>
       </c>
-      <c r="N84" s="44"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+      <c r="N85" s="44"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
         <v>9884</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9885</v>
-      </c>
-      <c r="E88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" t="s">
-        <v>277</v>
-      </c>
-      <c r="G88" t="s">
-        <v>278</v>
-      </c>
-      <c r="H88" t="s">
-        <v>279</v>
-      </c>
-      <c r="L88" s="28">
-        <v>3225640</v>
-      </c>
-      <c r="N88" t="s">
-        <v>280</v>
-      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B89" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s">
-        <v>9886</v>
+        <v>9885</v>
       </c>
       <c r="E89" t="s">
         <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>219</v>
+        <v>277</v>
+      </c>
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="H89" t="s">
+        <v>279</v>
       </c>
       <c r="L89" s="28">
-        <v>3008273</v>
+        <v>3225640</v>
+      </c>
+      <c r="N89" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B90" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>9887</v>
+        <v>9886</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" t="s">
-        <v>97</v>
-      </c>
-      <c r="L90" s="27">
-        <v>6161032</v>
-      </c>
-      <c r="N90" s="44"/>
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
+        <v>219</v>
+      </c>
+      <c r="L90" s="28">
+        <v>3008273</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B91" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>9888</v>
+        <v>9887</v>
       </c>
       <c r="E91" t="s">
         <v>127</v>
       </c>
       <c r="G91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L91" s="27">
-        <v>3226275</v>
+        <v>6161032</v>
       </c>
       <c r="N91" s="44"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B92" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>9889</v>
+        <v>9888</v>
       </c>
       <c r="E92" t="s">
         <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L92" s="27">
-        <v>6161035</v>
+        <v>3226275</v>
       </c>
       <c r="N92" s="44"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B93" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
         <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>9890</v>
+        <v>9889</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>100</v>
-      </c>
-      <c r="L93" s="28">
-        <v>6161034</v>
-      </c>
-      <c r="N93" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="L93" s="27">
+        <v>6161035</v>
+      </c>
+      <c r="N93" s="44"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B94" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>9891</v>
+        <v>9890</v>
       </c>
       <c r="E94" t="s">
         <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>101</v>
-      </c>
-      <c r="L94" s="27">
-        <v>2785839</v>
-      </c>
-      <c r="N94" s="44"/>
+        <v>100</v>
+      </c>
+      <c r="L94" s="28">
+        <v>6161034</v>
+      </c>
+      <c r="N94" s="29"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B95" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>9892</v>
+        <v>9891</v>
       </c>
       <c r="E95" t="s">
         <v>127</v>
       </c>
       <c r="G95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L95" s="27">
-        <v>3440328</v>
+        <v>2785839</v>
       </c>
       <c r="N95" s="44"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B96" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
-        <v>9893</v>
+        <v>9892</v>
       </c>
       <c r="E96" t="s">
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L96" s="27">
-        <v>3440330</v>
+        <v>3440328</v>
       </c>
       <c r="N96" s="44"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B97" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D97" t="s">
-        <v>9894</v>
+        <v>9893</v>
       </c>
       <c r="E97" t="s">
         <v>127</v>
       </c>
       <c r="G97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L97" s="27">
-        <v>3440331</v>
+        <v>3440330</v>
       </c>
       <c r="N97" s="44"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B98" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
-        <v>9895</v>
+        <v>9894</v>
       </c>
       <c r="E98" t="s">
         <v>127</v>
       </c>
       <c r="G98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L98" s="27">
-        <v>3121376</v>
+        <v>3440331</v>
       </c>
       <c r="N98" s="44"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B99" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s">
-        <v>9896</v>
+        <v>9895</v>
       </c>
       <c r="E99" t="s">
-        <v>168</v>
-      </c>
-      <c r="F99" t="s">
-        <v>291</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="L99" s="28">
-        <v>6154731</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>105</v>
+      </c>
+      <c r="L99" s="27">
+        <v>3121376</v>
+      </c>
+      <c r="N99" s="44"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B100" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
-        <v>9897</v>
+        <v>9896</v>
       </c>
       <c r="E100" t="s">
         <v>168</v>
@@ -33309,214 +33312,235 @@
       </c>
       <c r="G100" s="4"/>
       <c r="L100" s="28">
-        <v>3008273</v>
+        <v>6154731</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B101" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9897</v>
+      </c>
+      <c r="E101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" t="s">
+        <v>291</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="L101" s="28">
+        <v>3008273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B102" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>293</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>9898</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>127</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>108</v>
       </c>
-      <c r="L101" s="28">
+      <c r="L102" s="28">
         <v>5424231</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
         <v>9927</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" t="s">
-        <v>295</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9928</v>
-      </c>
-      <c r="E104" t="s">
-        <v>127</v>
-      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B105" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" t="s">
-        <v>9929</v>
+        <v>9928</v>
       </c>
       <c r="E105" t="s">
         <v>127</v>
       </c>
-      <c r="G105" t="s">
-        <v>110</v>
-      </c>
-      <c r="H105" t="s">
-        <v>297</v>
-      </c>
-      <c r="L105" s="27">
-        <v>5102381</v>
-      </c>
-      <c r="N105" s="44"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B106" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D106" t="s">
-        <v>9930</v>
+        <v>9929</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
-      </c>
-      <c r="F106" t="s">
-        <v>219</v>
-      </c>
-      <c r="H106">
-        <v>5</v>
-      </c>
-      <c r="L106" s="28">
-        <v>6154726</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G106" t="s">
+        <v>110</v>
+      </c>
+      <c r="H106" t="s">
+        <v>297</v>
+      </c>
+      <c r="L106" s="27">
+        <v>5102381</v>
+      </c>
+      <c r="N106" s="44"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B107" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>9931</v>
+        <v>9930</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" t="s">
-        <v>112</v>
-      </c>
-      <c r="H107" t="s">
-        <v>300</v>
-      </c>
-      <c r="L107" s="27">
-        <v>5102383</v>
-      </c>
-      <c r="N107" s="44"/>
+        <v>168</v>
+      </c>
+      <c r="F107" t="s">
+        <v>219</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="L107" s="28">
+        <v>6154726</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B108" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
-        <v>9932</v>
+        <v>9931</v>
       </c>
       <c r="E108" t="s">
         <v>127</v>
       </c>
       <c r="G108" t="s">
+        <v>112</v>
+      </c>
+      <c r="H108" t="s">
+        <v>300</v>
+      </c>
+      <c r="L108" s="27">
+        <v>5102383</v>
+      </c>
+      <c r="N108" s="44"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B109" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="H108" t="s">
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9932</v>
+      </c>
+      <c r="E109" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" t="s">
+        <v>113</v>
+      </c>
+      <c r="H109" t="s">
         <v>302</v>
       </c>
-      <c r="L108" s="27">
+      <c r="L109" s="27">
         <v>2975232</v>
       </c>
-      <c r="N108" s="44"/>
+      <c r="N109" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L33" r:id="rId1" location="/search?publicId=2200604&amp;version=3.0" display="2200604" xr:uid="{613DB185-94A7-9148-B8F9-542B1D81D5F8}"/>
-    <hyperlink ref="L34" r:id="rId2" location="/search?publicId=2192199&amp;version=1.0" display="2192199" xr:uid="{0515F493-0BC4-ED4D-850F-F5F2A3304AA6}"/>
-    <hyperlink ref="L35" r:id="rId3" location="/search?publicId=2192217&amp;version=2.0" display="2192217" xr:uid="{D86CABAC-16FC-4F49-AE71-00060D79FC62}"/>
-    <hyperlink ref="L92" r:id="rId4" location="/search?publicId=6161035&amp;version=1.0" display="6161035" xr:uid="{5856219C-4ADA-CC43-BA6F-59C36573FCC7}"/>
-    <hyperlink ref="L91" r:id="rId5" location="/search?publicId=3226275&amp;version=1.0" display="3226275" xr:uid="{FD498678-058D-8645-8291-D1199A41E130}"/>
-    <hyperlink ref="L90" r:id="rId6" location="/search?publicId=6161032&amp;version=1.0" display="6161032" xr:uid="{F002B41F-BC83-D846-9634-51DC0BF4D28F}"/>
-    <hyperlink ref="L94" r:id="rId7" location="/search?publicId=2785839&amp;version=2.0" display="2785839" xr:uid="{6C13188A-91D6-574A-AFD5-DC836DF5CD96}"/>
-    <hyperlink ref="L98" r:id="rId8" location="/search?publicId=3121376&amp;version=1.0" display="3121376" xr:uid="{7CC61DD4-E5A1-1742-8595-BB1CA0406FA4}"/>
-    <hyperlink ref="L95" r:id="rId9" location="/search?publicId=3440328&amp;version=1.0" display="3440328" xr:uid="{596A7541-8C02-754C-AA80-0A686C7AFDEB}"/>
-    <hyperlink ref="L96" r:id="rId10" location="/search?publicId=3440330&amp;version=1.0" display="3440330" xr:uid="{A0EB2805-C6F0-AD4F-8216-CEB3FF84B87F}"/>
-    <hyperlink ref="L97" r:id="rId11" location="/search?publicId=3440331&amp;version=1.0" display="3440331" xr:uid="{5AB5EE2F-EB6B-4244-9C36-DE30A35E7EE5}"/>
-    <hyperlink ref="L105" r:id="rId12" location="/search?publicId=5102381&amp;version=1.0" display="5102381" xr:uid="{6D8F915B-B489-0847-A3F1-4F2376D7997C}"/>
-    <hyperlink ref="L107" r:id="rId13" location="/search?publicId=5102383&amp;version=1.0" display="5102383" xr:uid="{8658E72B-B958-2A4E-96B0-BE8995880BB5}"/>
-    <hyperlink ref="L48" r:id="rId14" location="/search?publicId=5432687&amp;version=1.0" display="5432687" xr:uid="{99150DC7-F5EB-E04B-9EBB-4089B4F2CFE0}"/>
-    <hyperlink ref="L44" r:id="rId15" location="/search?publicId=3111302&amp;version=2.0" display="3111302" xr:uid="{8845D9B1-1992-CB4E-8FB7-AC66CE0236A1}"/>
-    <hyperlink ref="L49" r:id="rId16" location="/search?publicId=4742851&amp;version=1.0" display="4742851" xr:uid="{62181FD6-DF54-E644-9757-ED314B4C0454}"/>
-    <hyperlink ref="L84" r:id="rId17" location="/search?publicId=5&amp;version=5.0" display="5" xr:uid="{A34F7D11-6915-B341-84C4-C33C21D1CD7E}"/>
-    <hyperlink ref="L108" r:id="rId18" location="/search?publicId=2975232&amp;version=1.0" display="2975232" xr:uid="{6EBDD450-DF6C-CD4E-A7F0-4FDD40819E11}"/>
-    <hyperlink ref="L88" r:id="rId19" location="/search?publicId=3225640&amp;version=2.0" display="3225640" xr:uid="{0EAB3160-84F4-5142-9C3F-B0930D8CC2F7}"/>
-    <hyperlink ref="L89" r:id="rId20" location="/search?publicId=3008273&amp;version=1.0" display="3008273" xr:uid="{DD10725F-14BF-B542-AC9C-4EDD56F7F91E}"/>
-    <hyperlink ref="L93" r:id="rId21" location="/search?publicId=6161034&amp;version=1.0" display="6161034" xr:uid="{3B08C4C2-B85D-A640-A74F-14D93B051612}"/>
-    <hyperlink ref="L99" r:id="rId22" location="/search?publicId=6154731&amp;version=1.0" display="6154731" xr:uid="{663B0F2B-C014-7043-A709-D73337BE7D0B}"/>
-    <hyperlink ref="L100" r:id="rId23" location="/search?publicId=3008273&amp;version=1.0" display="3008273" xr:uid="{DE52F471-3E57-8543-BD1E-2E24FBE7E6BA}"/>
-    <hyperlink ref="L101" r:id="rId24" location="/search?publicId=2759550&amp;version=1.0" display="5424231" xr:uid="{91F4D843-DEFA-014C-9FD6-8DE9DDF23E2C}"/>
-    <hyperlink ref="L106" r:id="rId25" location="/search?publicId=6154726&amp;version=1.0" display="6154726" xr:uid="{9E3E385C-E5E0-1641-90F1-B2C7C4C6C661}"/>
-    <hyperlink ref="L50" r:id="rId26" location="/search?publicId=3008340&amp;version=1.0" display="3008340" xr:uid="{4232A3A0-4ABB-2D40-A548-E42C523BA5CC}"/>
-    <hyperlink ref="H58" r:id="rId27" xr:uid="{CEEB3ED0-947B-0B48-B06B-628EFC2D9E2E}"/>
-    <hyperlink ref="L11" r:id="rId28" location="/search?publicId=1848&amp;version=2.31 https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html#/search?publicId=3717994&amp;version=1.0" display="1848" xr:uid="{49F93C24-27F6-F048-AF8F-50F96A17A6B6}"/>
-    <hyperlink ref="M11" r:id="rId29" location="/search?publicId=3717994&amp;version=1.0" display="6974944" xr:uid="{BDE9EA4C-4AC7-3943-8668-013D3E6301A9}"/>
-    <hyperlink ref="L12" r:id="rId30" location="/search?publicId=2661018&amp;version=3.0" display="2661018" xr:uid="{2237324C-C9CF-7C4C-AE8E-97AE167B30D6}"/>
-    <hyperlink ref="L14" r:id="rId31" location="/search?publicId=3717994&amp;version=1.0" display="3717994" xr:uid="{C8F2943F-85BA-5749-AF97-53555ED4A557}"/>
-    <hyperlink ref="L20" r:id="rId32" location="/search?publicId=3717994&amp;version=1.0" display="3434057" xr:uid="{CB9A29C6-543A-944A-888B-3B46F75A51E6}"/>
-    <hyperlink ref="L22" r:id="rId33" location="/search?publicId=3717994&amp;version=1.0" display="2649415" xr:uid="{2B62F659-A10A-2444-BA75-B91650F33372}"/>
-    <hyperlink ref="L26" r:id="rId34" location="/search?publicId=3717994&amp;version=1.0" display="6118266" xr:uid="{313D36BD-3CF8-1F4D-AEEC-2E99DB41D5C5}"/>
-    <hyperlink ref="L8" r:id="rId35" location="/search?publicId=6944407&amp;version=1.0" display="6944407" xr:uid="{E1B70F1B-A0F7-7A41-BB27-5498A43EB19A}"/>
-    <hyperlink ref="L29" r:id="rId36" location="/search?publicId=6115806&amp;version=1.0" display="6115806" xr:uid="{1F162C4D-49CD-E040-A869-E1F0BCDE05BD}"/>
-    <hyperlink ref="L32" r:id="rId37" location="/search?publicId=6115806&amp;version=1.0" display="6867052" xr:uid="{474FD3AE-AD7C-CD47-9589-4F2ABABDF2A4}"/>
-    <hyperlink ref="L82" r:id="rId38" display="6161017" xr:uid="{CA243B81-6560-6B41-98A6-166102DF0B88}"/>
-    <hyperlink ref="L83" r:id="rId39" location="/search?publicId=6161019&amp;version=1.0" display="6161019" xr:uid="{9A4C4D19-DA13-7140-A728-1B3D2A3FC6FE}"/>
-    <hyperlink ref="M84" r:id="rId40" location="/search?publicId=2847330&amp;version=1.0" display="2847330" xr:uid="{D7A6C588-5FC5-A34A-B021-098B0E3B96EF}"/>
-    <hyperlink ref="L43" r:id="rId41" location="/search?publicId=2230047&amp;version=4.0" display="2230047" xr:uid="{EBFE2AD3-456C-2740-9F10-B0AEF54E2DD4}"/>
-    <hyperlink ref="L42" r:id="rId42" location="/search?publicId=2003907&amp;version=3.0" display="2003907" xr:uid="{58F6685B-FB35-D646-98C6-1684D8158ABB}"/>
-    <hyperlink ref="M42" r:id="rId43" location="/search?publicId=5432687&amp;version=2.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5432687&amp;version=2.0" xr:uid="{89E135AA-4453-5046-9AA0-C9FA91BDE836}"/>
-    <hyperlink ref="L51" r:id="rId44" location="/search?publicId=5581201&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5581201&amp;version=1.0" xr:uid="{FD599D8F-85FD-AE44-8AB4-A937964D6CA7}"/>
-    <hyperlink ref="M51" r:id="rId45" location="/search?publicId=5220155&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5220155&amp;version=1.0" xr:uid="{A0A63C04-1599-FC4E-BFAD-C230600F2ED9}"/>
-    <hyperlink ref="L59" r:id="rId46" location="/search?publicId=6115805&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115805&amp;version=1.0" xr:uid="{2E703FE3-F201-4B44-AA3F-A4C9EB1AC12D}"/>
-    <hyperlink ref="L56" r:id="rId47" location="/search?publicId=6115806&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115806&amp;version=1.0" xr:uid="{FD61D6D8-D6D6-7940-8E0F-26A6D90BA3F5}"/>
-    <hyperlink ref="L55" r:id="rId48" location="/search?publicId=6983162&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6983162&amp;version=1.0" xr:uid="{04946DF6-0949-7B40-810B-81F295775C4E}"/>
-    <hyperlink ref="M55" r:id="rId49" location="/search?publicId=7797710&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=7797710&amp;version=1.0" xr:uid="{1D70CA53-DBA3-6B45-A5A1-7B957F5E005D}"/>
-    <hyperlink ref="L54" r:id="rId50" location="/search?publicId=6115804&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115804&amp;version=1.0" xr:uid="{ECF36D74-3A07-8840-8673-2AE34B9B9E0A}"/>
-    <hyperlink ref="M54" r:id="rId51" location="/search?publicId=7787681&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=7787681&amp;version=1.0" xr:uid="{C382FD74-62C8-6B4C-AD54-AAB3D3D18A13}"/>
-    <hyperlink ref="L70" r:id="rId52" location="/search?publicId=6352164&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6352164&amp;version=1.0" xr:uid="{B136D1FD-298E-F44D-86C1-AC68905C8DEB}"/>
-    <hyperlink ref="L69" r:id="rId53" location="/search?publicId=6347771&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6347771&amp;version=1.0" xr:uid="{5E4C9416-12C1-0044-AC6A-F859FEA818C0}"/>
-    <hyperlink ref="L67" r:id="rId54" location="/search?publicId=6347743&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6347743&amp;version=1.0" xr:uid="{B6D9C394-4A1D-C741-91EA-FC8E86E1A40C}"/>
-    <hyperlink ref="L66" r:id="rId55" location="/search?publicId=6285979&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6285979&amp;version=1.0" xr:uid="{A1110F36-36B2-3C47-8C86-F2B5DCE7B53A}"/>
-    <hyperlink ref="L65" r:id="rId56" location="/search?publicId=6273393&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6273393&amp;version=1.0" xr:uid="{BA1264DB-760D-4143-93C0-0E1900FF8CA5}"/>
-    <hyperlink ref="L77" r:id="rId57" location="/search?publicId=6380354&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6380354&amp;version=1.0" xr:uid="{B2C508F4-570E-1543-AD67-E874F56DEE85}"/>
+    <hyperlink ref="L34" r:id="rId1" location="/search?publicId=2200604&amp;version=3.0" display="2200604" xr:uid="{613DB185-94A7-9148-B8F9-542B1D81D5F8}"/>
+    <hyperlink ref="L35" r:id="rId2" location="/search?publicId=2192199&amp;version=1.0" display="2192199" xr:uid="{0515F493-0BC4-ED4D-850F-F5F2A3304AA6}"/>
+    <hyperlink ref="L36" r:id="rId3" location="/search?publicId=2192217&amp;version=2.0" display="2192217" xr:uid="{D86CABAC-16FC-4F49-AE71-00060D79FC62}"/>
+    <hyperlink ref="L93" r:id="rId4" location="/search?publicId=6161035&amp;version=1.0" display="6161035" xr:uid="{5856219C-4ADA-CC43-BA6F-59C36573FCC7}"/>
+    <hyperlink ref="L92" r:id="rId5" location="/search?publicId=3226275&amp;version=1.0" display="3226275" xr:uid="{FD498678-058D-8645-8291-D1199A41E130}"/>
+    <hyperlink ref="L91" r:id="rId6" location="/search?publicId=6161032&amp;version=1.0" display="6161032" xr:uid="{F002B41F-BC83-D846-9634-51DC0BF4D28F}"/>
+    <hyperlink ref="L95" r:id="rId7" location="/search?publicId=2785839&amp;version=2.0" display="2785839" xr:uid="{6C13188A-91D6-574A-AFD5-DC836DF5CD96}"/>
+    <hyperlink ref="L99" r:id="rId8" location="/search?publicId=3121376&amp;version=1.0" display="3121376" xr:uid="{7CC61DD4-E5A1-1742-8595-BB1CA0406FA4}"/>
+    <hyperlink ref="L96" r:id="rId9" location="/search?publicId=3440328&amp;version=1.0" display="3440328" xr:uid="{596A7541-8C02-754C-AA80-0A686C7AFDEB}"/>
+    <hyperlink ref="L97" r:id="rId10" location="/search?publicId=3440330&amp;version=1.0" display="3440330" xr:uid="{A0EB2805-C6F0-AD4F-8216-CEB3FF84B87F}"/>
+    <hyperlink ref="L98" r:id="rId11" location="/search?publicId=3440331&amp;version=1.0" display="3440331" xr:uid="{5AB5EE2F-EB6B-4244-9C36-DE30A35E7EE5}"/>
+    <hyperlink ref="L106" r:id="rId12" location="/search?publicId=5102381&amp;version=1.0" display="5102381" xr:uid="{6D8F915B-B489-0847-A3F1-4F2376D7997C}"/>
+    <hyperlink ref="L108" r:id="rId13" location="/search?publicId=5102383&amp;version=1.0" display="5102383" xr:uid="{8658E72B-B958-2A4E-96B0-BE8995880BB5}"/>
+    <hyperlink ref="L49" r:id="rId14" location="/search?publicId=5432687&amp;version=1.0" display="5432687" xr:uid="{99150DC7-F5EB-E04B-9EBB-4089B4F2CFE0}"/>
+    <hyperlink ref="L45" r:id="rId15" location="/search?publicId=3111302&amp;version=2.0" display="3111302" xr:uid="{8845D9B1-1992-CB4E-8FB7-AC66CE0236A1}"/>
+    <hyperlink ref="L50" r:id="rId16" location="/search?publicId=4742851&amp;version=1.0" display="4742851" xr:uid="{62181FD6-DF54-E644-9757-ED314B4C0454}"/>
+    <hyperlink ref="L85" r:id="rId17" location="/search?publicId=5&amp;version=5.0" display="5" xr:uid="{A34F7D11-6915-B341-84C4-C33C21D1CD7E}"/>
+    <hyperlink ref="L109" r:id="rId18" location="/search?publicId=2975232&amp;version=1.0" display="2975232" xr:uid="{6EBDD450-DF6C-CD4E-A7F0-4FDD40819E11}"/>
+    <hyperlink ref="L89" r:id="rId19" location="/search?publicId=3225640&amp;version=2.0" display="3225640" xr:uid="{0EAB3160-84F4-5142-9C3F-B0930D8CC2F7}"/>
+    <hyperlink ref="L90" r:id="rId20" location="/search?publicId=3008273&amp;version=1.0" display="3008273" xr:uid="{DD10725F-14BF-B542-AC9C-4EDD56F7F91E}"/>
+    <hyperlink ref="L94" r:id="rId21" location="/search?publicId=6161034&amp;version=1.0" display="6161034" xr:uid="{3B08C4C2-B85D-A640-A74F-14D93B051612}"/>
+    <hyperlink ref="L100" r:id="rId22" location="/search?publicId=6154731&amp;version=1.0" display="6154731" xr:uid="{663B0F2B-C014-7043-A709-D73337BE7D0B}"/>
+    <hyperlink ref="L101" r:id="rId23" location="/search?publicId=3008273&amp;version=1.0" display="3008273" xr:uid="{DE52F471-3E57-8543-BD1E-2E24FBE7E6BA}"/>
+    <hyperlink ref="L102" r:id="rId24" location="/search?publicId=2759550&amp;version=1.0" display="5424231" xr:uid="{91F4D843-DEFA-014C-9FD6-8DE9DDF23E2C}"/>
+    <hyperlink ref="L107" r:id="rId25" location="/search?publicId=6154726&amp;version=1.0" display="6154726" xr:uid="{9E3E385C-E5E0-1641-90F1-B2C7C4C6C661}"/>
+    <hyperlink ref="L51" r:id="rId26" location="/search?publicId=3008340&amp;version=1.0" display="3008340" xr:uid="{4232A3A0-4ABB-2D40-A548-E42C523BA5CC}"/>
+    <hyperlink ref="H59" r:id="rId27" xr:uid="{CEEB3ED0-947B-0B48-B06B-628EFC2D9E2E}"/>
+    <hyperlink ref="L12" r:id="rId28" location="/search?publicId=1848&amp;version=2.31 https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html#/search?publicId=3717994&amp;version=1.0" display="1848" xr:uid="{49F93C24-27F6-F048-AF8F-50F96A17A6B6}"/>
+    <hyperlink ref="M12" r:id="rId29" location="/search?publicId=3717994&amp;version=1.0" display="6974944" xr:uid="{BDE9EA4C-4AC7-3943-8668-013D3E6301A9}"/>
+    <hyperlink ref="L13" r:id="rId30" location="/search?publicId=2661018&amp;version=3.0" display="2661018" xr:uid="{2237324C-C9CF-7C4C-AE8E-97AE167B30D6}"/>
+    <hyperlink ref="L15" r:id="rId31" location="/search?publicId=3717994&amp;version=1.0" display="3717994" xr:uid="{C8F2943F-85BA-5749-AF97-53555ED4A557}"/>
+    <hyperlink ref="L21" r:id="rId32" location="/search?publicId=3717994&amp;version=1.0" display="3434057" xr:uid="{CB9A29C6-543A-944A-888B-3B46F75A51E6}"/>
+    <hyperlink ref="L23" r:id="rId33" location="/search?publicId=3717994&amp;version=1.0" display="2649415" xr:uid="{2B62F659-A10A-2444-BA75-B91650F33372}"/>
+    <hyperlink ref="L27" r:id="rId34" location="/search?publicId=3717994&amp;version=1.0" display="6118266" xr:uid="{313D36BD-3CF8-1F4D-AEEC-2E99DB41D5C5}"/>
+    <hyperlink ref="L9" r:id="rId35" location="/search?publicId=6944407&amp;version=1.0" display="6944407" xr:uid="{E1B70F1B-A0F7-7A41-BB27-5498A43EB19A}"/>
+    <hyperlink ref="L30" r:id="rId36" location="/search?publicId=6115806&amp;version=1.0" display="6115806" xr:uid="{1F162C4D-49CD-E040-A869-E1F0BCDE05BD}"/>
+    <hyperlink ref="L33" r:id="rId37" location="/search?publicId=6115806&amp;version=1.0" display="6867052" xr:uid="{474FD3AE-AD7C-CD47-9589-4F2ABABDF2A4}"/>
+    <hyperlink ref="L83" r:id="rId38" display="6161017" xr:uid="{CA243B81-6560-6B41-98A6-166102DF0B88}"/>
+    <hyperlink ref="L84" r:id="rId39" location="/search?publicId=6161019&amp;version=1.0" display="6161019" xr:uid="{9A4C4D19-DA13-7140-A728-1B3D2A3FC6FE}"/>
+    <hyperlink ref="M85" r:id="rId40" location="/search?publicId=2847330&amp;version=1.0" display="2847330" xr:uid="{D7A6C588-5FC5-A34A-B021-098B0E3B96EF}"/>
+    <hyperlink ref="L44" r:id="rId41" location="/search?publicId=2230047&amp;version=4.0" display="2230047" xr:uid="{EBFE2AD3-456C-2740-9F10-B0AEF54E2DD4}"/>
+    <hyperlink ref="L43" r:id="rId42" location="/search?publicId=2003907&amp;version=3.0" display="2003907" xr:uid="{58F6685B-FB35-D646-98C6-1684D8158ABB}"/>
+    <hyperlink ref="M43" r:id="rId43" location="/search?publicId=5432687&amp;version=2.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5432687&amp;version=2.0" xr:uid="{89E135AA-4453-5046-9AA0-C9FA91BDE836}"/>
+    <hyperlink ref="L52" r:id="rId44" location="/search?publicId=5581201&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5581201&amp;version=1.0" xr:uid="{FD599D8F-85FD-AE44-8AB4-A937964D6CA7}"/>
+    <hyperlink ref="M52" r:id="rId45" location="/search?publicId=5220155&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=5220155&amp;version=1.0" xr:uid="{A0A63C04-1599-FC4E-BFAD-C230600F2ED9}"/>
+    <hyperlink ref="L60" r:id="rId46" location="/search?publicId=6115805&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115805&amp;version=1.0" xr:uid="{2E703FE3-F201-4B44-AA3F-A4C9EB1AC12D}"/>
+    <hyperlink ref="L57" r:id="rId47" location="/search?publicId=6115806&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115806&amp;version=1.0" xr:uid="{FD61D6D8-D6D6-7940-8E0F-26A6D90BA3F5}"/>
+    <hyperlink ref="L56" r:id="rId48" location="/search?publicId=6983162&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6983162&amp;version=1.0" xr:uid="{04946DF6-0949-7B40-810B-81F295775C4E}"/>
+    <hyperlink ref="M56" r:id="rId49" location="/search?publicId=7797710&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=7797710&amp;version=1.0" xr:uid="{1D70CA53-DBA3-6B45-A5A1-7B957F5E005D}"/>
+    <hyperlink ref="L55" r:id="rId50" location="/search?publicId=6115804&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6115804&amp;version=1.0" xr:uid="{ECF36D74-3A07-8840-8673-2AE34B9B9E0A}"/>
+    <hyperlink ref="M55" r:id="rId51" location="/search?publicId=7787681&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=7787681&amp;version=1.0" xr:uid="{C382FD74-62C8-6B4C-AD54-AAB3D3D18A13}"/>
+    <hyperlink ref="L71" r:id="rId52" location="/search?publicId=6352164&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6352164&amp;version=1.0" xr:uid="{B136D1FD-298E-F44D-86C1-AC68905C8DEB}"/>
+    <hyperlink ref="L70" r:id="rId53" location="/search?publicId=6347771&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6347771&amp;version=1.0" xr:uid="{5E4C9416-12C1-0044-AC6A-F859FEA818C0}"/>
+    <hyperlink ref="L68" r:id="rId54" location="/search?publicId=6347743&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6347743&amp;version=1.0" xr:uid="{B6D9C394-4A1D-C741-91EA-FC8E86E1A40C}"/>
+    <hyperlink ref="L67" r:id="rId55" location="/search?publicId=6285979&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6285979&amp;version=1.0" xr:uid="{A1110F36-36B2-3C47-8C86-F2B5DCE7B53A}"/>
+    <hyperlink ref="L66" r:id="rId56" location="/search?publicId=6273393&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6273393&amp;version=1.0" xr:uid="{BA1264DB-760D-4143-93C0-0E1900FF8CA5}"/>
+    <hyperlink ref="L78" r:id="rId57" location="/search?publicId=6380354&amp;version=1.0" display="https://cdebrowser.nci.nih.gov/cdebrowserClient/cdeBrowser.html - /search?publicId=6380354&amp;version=1.0" xr:uid="{B2C508F4-570E-1543-AD67-E874F56DEE85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33528,7 +33552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
